--- a/ResultadoEleicoesDistritos/LEIRIA_ÓBIDOS.xlsx
+++ b/ResultadoEleicoesDistritos/LEIRIA_ÓBIDOS.xlsx
@@ -597,64 +597,64 @@
         <v>3214</v>
       </c>
       <c r="H2" t="n">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="I2" t="n">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="J2" t="n">
-        <v>1302</v>
+        <v>1270</v>
       </c>
       <c r="K2" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2" t="n">
+        <v>355</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17</v>
+      </c>
+      <c r="N2" t="n">
+        <v>218</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
         <v>5</v>
       </c>
-      <c r="L2" t="n">
-        <v>336</v>
-      </c>
-      <c r="M2" t="n">
-        <v>22</v>
-      </c>
-      <c r="N2" t="n">
-        <v>232</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>8</v>
-      </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S2" t="n">
         <v>119</v>
       </c>
       <c r="T2" t="n">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="U2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V2" t="n">
-        <v>2093</v>
+        <v>2107</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2069</v>
+        <v>2108</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
